--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.444688333333333</v>
+        <v>24.98554166666667</v>
       </c>
       <c r="H2">
-        <v>16.334065</v>
+        <v>74.956625</v>
       </c>
       <c r="I2">
-        <v>0.1233261750980693</v>
+        <v>0.3944519259435156</v>
       </c>
       <c r="J2">
-        <v>0.1233261750980693</v>
+        <v>0.3944519259435156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3397146666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N2">
-        <v>1.019144</v>
+        <v>8.472693</v>
       </c>
       <c r="O2">
-        <v>0.001876105469878586</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P2">
-        <v>0.001876105469878587</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q2">
-        <v>1.849640482262222</v>
+        <v>70.56494132679165</v>
       </c>
       <c r="R2">
-        <v>16.64676434036</v>
+        <v>635.084471941125</v>
       </c>
       <c r="S2">
-        <v>0.0002313729116806922</v>
+        <v>0.006062878147479406</v>
       </c>
       <c r="T2">
-        <v>0.0002313729116806923</v>
+        <v>0.006062878147479408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.444688333333333</v>
+        <v>24.98554166666667</v>
       </c>
       <c r="H3">
-        <v>16.334065</v>
+        <v>74.956625</v>
       </c>
       <c r="I3">
-        <v>0.1233261750980693</v>
+        <v>0.3944519259435156</v>
       </c>
       <c r="J3">
-        <v>0.1233261750980693</v>
+        <v>0.3944519259435156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>541.0724789999999</v>
       </c>
       <c r="O3">
-        <v>0.9960408317692755</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P3">
-        <v>0.9960408317692757</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q3">
-        <v>981.9903379663481</v>
+        <v>4506.329656247041</v>
       </c>
       <c r="R3">
-        <v>8837.913041697133</v>
+        <v>40556.96690622337</v>
       </c>
       <c r="S3">
-        <v>0.1228379060236043</v>
+        <v>0.3871799095201029</v>
       </c>
       <c r="T3">
-        <v>0.1228379060236043</v>
+        <v>0.3871799095201031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.444688333333333</v>
+        <v>24.98554166666667</v>
       </c>
       <c r="H4">
-        <v>16.334065</v>
+        <v>74.956625</v>
       </c>
       <c r="I4">
-        <v>0.1233261750980693</v>
+        <v>0.3944519259435156</v>
       </c>
       <c r="J4">
-        <v>0.1233261750980693</v>
+        <v>0.3944519259435156</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07065566666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N4">
-        <v>0.211967</v>
+        <v>1.453856</v>
       </c>
       <c r="O4">
-        <v>0.000390202413136666</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P4">
-        <v>0.0003902024131366661</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q4">
-        <v>0.3846980839838889</v>
+        <v>12.10845988844444</v>
       </c>
       <c r="R4">
-        <v>3.462282755855</v>
+        <v>108.976138996</v>
       </c>
       <c r="S4">
-        <v>4.812217112618166E-05</v>
+        <v>0.001040348301535512</v>
       </c>
       <c r="T4">
-        <v>4.812217112618168E-05</v>
+        <v>0.001040348301535512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.444688333333333</v>
+        <v>24.98554166666667</v>
       </c>
       <c r="H5">
-        <v>16.334065</v>
+        <v>74.956625</v>
       </c>
       <c r="I5">
-        <v>0.1233261750980693</v>
+        <v>0.3944519259435156</v>
       </c>
       <c r="J5">
-        <v>0.1233261750980693</v>
+        <v>0.3944519259435156</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,43 +747,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.240756</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N5">
-        <v>0.722268</v>
+        <v>0.235879</v>
       </c>
       <c r="O5">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P5">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q5">
-        <v>1.31084138438</v>
+        <v>1.964521527597222</v>
       </c>
       <c r="R5">
-        <v>11.79757245942</v>
+        <v>17.680693748375</v>
       </c>
       <c r="S5">
-        <v>0.0001639741294397948</v>
+        <v>0.0001687899743976673</v>
       </c>
       <c r="T5">
-        <v>0.0001639741294397948</v>
+        <v>0.0001687899743976673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.444688333333333</v>
+        <v>4.448721333333333</v>
       </c>
       <c r="H6">
-        <v>16.334065</v>
+        <v>13.346164</v>
       </c>
       <c r="I6">
-        <v>0.1233261750980693</v>
+        <v>0.07023288593580639</v>
       </c>
       <c r="J6">
-        <v>0.1233261750980693</v>
+        <v>0.0702328859358064</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06577766666666666</v>
+        <v>2.824231</v>
       </c>
       <c r="N6">
-        <v>0.197333</v>
+        <v>8.472693</v>
       </c>
       <c r="O6">
-        <v>0.000363263209799156</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P6">
-        <v>0.0003632632097991561</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q6">
-        <v>0.3581388942938888</v>
+        <v>12.56421669996133</v>
       </c>
       <c r="R6">
-        <v>3.223250048645</v>
+        <v>113.077950299652</v>
       </c>
       <c r="S6">
-        <v>4.479986221837741E-05</v>
+        <v>0.001079506528852871</v>
       </c>
       <c r="T6">
-        <v>4.479986221837743E-05</v>
+        <v>0.001079506528852871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>13.346164</v>
       </c>
       <c r="I7">
-        <v>0.1007667937131112</v>
+        <v>0.07023288593580639</v>
       </c>
       <c r="J7">
-        <v>0.1007667937131112</v>
+        <v>0.0702328859358064</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3397146666666667</v>
+        <v>180.357493</v>
       </c>
       <c r="N7">
-        <v>1.019144</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O7">
-        <v>0.001876105469878586</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P7">
-        <v>0.001876105469878587</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q7">
-        <v>1.511295884846222</v>
+        <v>802.3602267356172</v>
       </c>
       <c r="R7">
-        <v>13.601662963616</v>
+        <v>7221.242040620555</v>
       </c>
       <c r="S7">
-        <v>0.0001890491328672951</v>
+        <v>0.06893809012826357</v>
       </c>
       <c r="T7">
-        <v>0.0001890491328672951</v>
+        <v>0.0689380901282636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>13.346164</v>
       </c>
       <c r="I8">
-        <v>0.1007667937131112</v>
+        <v>0.07023288593580639</v>
       </c>
       <c r="J8">
-        <v>0.1007667937131112</v>
+        <v>0.0702328859358064</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>180.357493</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N8">
-        <v>541.0724789999999</v>
+        <v>1.453856</v>
       </c>
       <c r="O8">
-        <v>0.9960408317692755</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P8">
-        <v>0.9960408317692757</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q8">
-        <v>802.3602267356172</v>
+        <v>2.155933400931556</v>
       </c>
       <c r="R8">
-        <v>7221.242040620555</v>
+        <v>19.403400608384</v>
       </c>
       <c r="S8">
-        <v>0.1003678410247303</v>
+        <v>0.0001852359154299489</v>
       </c>
       <c r="T8">
-        <v>0.1003678410247303</v>
+        <v>0.000185235915429949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>13.346164</v>
       </c>
       <c r="I9">
-        <v>0.1007667937131112</v>
+        <v>0.07023288593580639</v>
       </c>
       <c r="J9">
-        <v>0.1007667937131112</v>
+        <v>0.0702328859358064</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07065566666666667</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N9">
-        <v>0.211967</v>
+        <v>0.235879</v>
       </c>
       <c r="O9">
-        <v>0.000390202413136666</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P9">
-        <v>0.0003902024131366661</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q9">
-        <v>0.3143273716208889</v>
+        <v>0.3497866464617778</v>
       </c>
       <c r="R9">
-        <v>2.828946344588</v>
+        <v>3.148079818156</v>
       </c>
       <c r="S9">
-        <v>3.931944607090062E-05</v>
+        <v>3.005336325997961E-05</v>
       </c>
       <c r="T9">
-        <v>3.931944607090063E-05</v>
+        <v>3.005336325997962E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1039,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.448721333333333</v>
+        <v>2.300182666666667</v>
       </c>
       <c r="H10">
-        <v>13.346164</v>
+        <v>6.900548</v>
       </c>
       <c r="I10">
-        <v>0.1007667937131112</v>
+        <v>0.03631346060025614</v>
       </c>
       <c r="J10">
-        <v>0.1007667937131112</v>
+        <v>0.03631346060025614</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.240756</v>
+        <v>2.824231</v>
       </c>
       <c r="N10">
-        <v>0.722268</v>
+        <v>8.472693</v>
       </c>
       <c r="O10">
-        <v>0.001329597137910116</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P10">
-        <v>0.001329597137910116</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q10">
-        <v>1.071056353328</v>
+        <v>6.496247192862666</v>
       </c>
       <c r="R10">
-        <v>9.639507179952</v>
+        <v>58.46622473576399</v>
       </c>
       <c r="S10">
-        <v>0.0001339792405173317</v>
+        <v>0.0005581518868389915</v>
       </c>
       <c r="T10">
-        <v>0.0001339792405173317</v>
+        <v>0.0005581518868389916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.448721333333333</v>
+        <v>2.300182666666667</v>
       </c>
       <c r="H11">
-        <v>13.346164</v>
+        <v>6.900548</v>
       </c>
       <c r="I11">
-        <v>0.1007667937131112</v>
+        <v>0.03631346060025614</v>
       </c>
       <c r="J11">
-        <v>0.1007667937131112</v>
+        <v>0.03631346060025614</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06577766666666666</v>
+        <v>180.357493</v>
       </c>
       <c r="N11">
-        <v>0.197333</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O11">
-        <v>0.000363263209799156</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P11">
-        <v>0.0003632632097991561</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q11">
-        <v>0.2926265089568889</v>
+        <v>414.8551792020546</v>
       </c>
       <c r="R11">
-        <v>2.633638580612</v>
+        <v>3733.696612818491</v>
       </c>
       <c r="S11">
-        <v>3.660486892539419E-05</v>
+        <v>0.03564399478070321</v>
       </c>
       <c r="T11">
-        <v>3.66048689253942E-05</v>
+        <v>0.03564399478070321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.451216</v>
+        <v>2.300182666666667</v>
       </c>
       <c r="H12">
-        <v>10.353648</v>
+        <v>6.900548</v>
       </c>
       <c r="I12">
-        <v>0.07817256795242186</v>
+        <v>0.03631346060025614</v>
       </c>
       <c r="J12">
-        <v>0.07817256795242186</v>
+        <v>0.03631346060025614</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3397146666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N12">
-        <v>1.019144</v>
+        <v>1.453856</v>
       </c>
       <c r="O12">
-        <v>0.001876105469878586</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P12">
-        <v>0.001876105469878587</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q12">
-        <v>1.172428693034667</v>
+        <v>1.114711457009778</v>
       </c>
       <c r="R12">
-        <v>10.551858237312</v>
+        <v>10.032403113088</v>
       </c>
       <c r="S12">
-        <v>0.0001466599823299941</v>
+        <v>9.577503511483172E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001466599823299942</v>
+        <v>9.577503511483173E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.451216</v>
+        <v>2.300182666666667</v>
       </c>
       <c r="H13">
-        <v>10.353648</v>
+        <v>6.900548</v>
       </c>
       <c r="I13">
-        <v>0.07817256795242186</v>
+        <v>0.03631346060025614</v>
       </c>
       <c r="J13">
-        <v>0.07817256795242186</v>
+        <v>0.03631346060025614</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>180.357493</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N13">
-        <v>541.0724789999999</v>
+        <v>0.235879</v>
       </c>
       <c r="O13">
-        <v>0.9960408317692755</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P13">
-        <v>0.9960408317692757</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q13">
-        <v>622.4526655614879</v>
+        <v>0.1808549290768889</v>
       </c>
       <c r="R13">
-        <v>5602.073990053391</v>
+        <v>1.627694361692</v>
       </c>
       <c r="S13">
-        <v>0.07786306960487048</v>
+        <v>1.553889759910981E-05</v>
       </c>
       <c r="T13">
-        <v>0.07786306960487049</v>
+        <v>1.553889759910981E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.451216</v>
+        <v>24.84549833333334</v>
       </c>
       <c r="H14">
-        <v>10.353648</v>
+        <v>74.536495</v>
       </c>
       <c r="I14">
-        <v>0.07817256795242186</v>
+        <v>0.3922410328083638</v>
       </c>
       <c r="J14">
-        <v>0.07817256795242186</v>
+        <v>0.3922410328083638</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.07065566666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N14">
-        <v>0.211967</v>
+        <v>8.472693</v>
       </c>
       <c r="O14">
-        <v>0.000390202413136666</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P14">
-        <v>0.0003902024131366661</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q14">
-        <v>0.2438479672906667</v>
+        <v>70.16942660344833</v>
       </c>
       <c r="R14">
-        <v>2.194631705616</v>
+        <v>631.5248394310349</v>
       </c>
       <c r="S14">
-        <v>3.050312465612501E-05</v>
+        <v>0.00602889586777964</v>
       </c>
       <c r="T14">
-        <v>3.050312465612502E-05</v>
+        <v>0.006028895867779641</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.451216</v>
+        <v>24.84549833333334</v>
       </c>
       <c r="H15">
-        <v>10.353648</v>
+        <v>74.536495</v>
       </c>
       <c r="I15">
-        <v>0.07817256795242186</v>
+        <v>0.3922410328083638</v>
       </c>
       <c r="J15">
-        <v>0.07817256795242186</v>
+        <v>0.3922410328083638</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.240756</v>
+        <v>180.357493</v>
       </c>
       <c r="N15">
-        <v>0.722268</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O15">
-        <v>0.001329597137910116</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P15">
-        <v>0.001329597137910116</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q15">
-        <v>0.8309009592960001</v>
+        <v>4481.071791735678</v>
       </c>
       <c r="R15">
-        <v>7.478108633664</v>
+        <v>40329.6461256211</v>
       </c>
       <c r="S15">
-        <v>0.0001039380226126241</v>
+        <v>0.3850097758543106</v>
       </c>
       <c r="T15">
-        <v>0.0001039380226126242</v>
+        <v>0.3850097758543106</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.451216</v>
+        <v>24.84549833333334</v>
       </c>
       <c r="H16">
-        <v>10.353648</v>
+        <v>74.536495</v>
       </c>
       <c r="I16">
-        <v>0.07817256795242186</v>
+        <v>0.3922410328083638</v>
       </c>
       <c r="J16">
-        <v>0.07817256795242186</v>
+        <v>0.3922410328083638</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.06577766666666666</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N16">
-        <v>0.197333</v>
+        <v>1.453856</v>
       </c>
       <c r="O16">
-        <v>0.000363263209799156</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P16">
-        <v>0.0003632632097991561</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q16">
-        <v>0.2270129356426667</v>
+        <v>12.04059227496889</v>
       </c>
       <c r="R16">
-        <v>2.043116420784</v>
+        <v>108.36533047472</v>
       </c>
       <c r="S16">
-        <v>2.839721795263941E-05</v>
+        <v>0.001034517175441933</v>
       </c>
       <c r="T16">
-        <v>2.839721795263941E-05</v>
+        <v>0.001034517175441933</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.00277966666667</v>
+        <v>24.84549833333334</v>
       </c>
       <c r="H17">
-        <v>72.00833900000001</v>
+        <v>74.536495</v>
       </c>
       <c r="I17">
-        <v>0.5436805243541726</v>
+        <v>0.3922410328083638</v>
       </c>
       <c r="J17">
-        <v>0.5436805243541726</v>
+        <v>0.3922410328083638</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3397146666666667</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N17">
-        <v>1.019144</v>
+        <v>0.235879</v>
       </c>
       <c r="O17">
-        <v>0.001876105469878586</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P17">
-        <v>0.001876105469878587</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q17">
-        <v>8.154096293535112</v>
+        <v>1.953510433789445</v>
       </c>
       <c r="R17">
-        <v>73.38686664181601</v>
+        <v>17.581593904105</v>
       </c>
       <c r="S17">
-        <v>0.001020002005607321</v>
+        <v>0.0001678439108316558</v>
       </c>
       <c r="T17">
-        <v>0.001020002005607321</v>
+        <v>0.0001678439108316558</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>24.00277966666667</v>
+        <v>0.9611190000000001</v>
       </c>
       <c r="H18">
-        <v>72.00833900000001</v>
+        <v>2.883357</v>
       </c>
       <c r="I18">
-        <v>0.5436805243541726</v>
+        <v>0.01517338489870265</v>
       </c>
       <c r="J18">
-        <v>0.5436805243541726</v>
+        <v>0.01517338489870265</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>180.357493</v>
+        <v>2.824231</v>
       </c>
       <c r="N18">
-        <v>541.0724789999999</v>
+        <v>8.472693</v>
       </c>
       <c r="O18">
-        <v>0.9960408317692755</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P18">
-        <v>0.9960408317692757</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q18">
-        <v>4329.081165711375</v>
+        <v>2.714422074489</v>
       </c>
       <c r="R18">
-        <v>38961.73049140238</v>
+        <v>24.429798670401</v>
       </c>
       <c r="S18">
-        <v>0.5415280016944859</v>
+        <v>0.0002332207746370888</v>
       </c>
       <c r="T18">
-        <v>0.541528001694486</v>
+        <v>0.0002332207746370889</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>24.00277966666667</v>
+        <v>0.9611190000000001</v>
       </c>
       <c r="H19">
-        <v>72.00833900000001</v>
+        <v>2.883357</v>
       </c>
       <c r="I19">
-        <v>0.5436805243541726</v>
+        <v>0.01517338489870265</v>
       </c>
       <c r="J19">
-        <v>0.5436805243541726</v>
+        <v>0.01517338489870265</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.07065566666666667</v>
+        <v>180.357493</v>
       </c>
       <c r="N19">
-        <v>0.211967</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O19">
-        <v>0.000390202413136666</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P19">
-        <v>0.0003902024131366661</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q19">
-        <v>1.695932399201445</v>
+        <v>173.345013314667</v>
       </c>
       <c r="R19">
-        <v>15.263391592813</v>
+        <v>1560.105119832003</v>
       </c>
       <c r="S19">
-        <v>0.000212145452578406</v>
+        <v>0.01489365219384084</v>
       </c>
       <c r="T19">
-        <v>0.0002121454525784061</v>
+        <v>0.01489365219384085</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>24.00277966666667</v>
+        <v>0.9611190000000001</v>
       </c>
       <c r="H20">
-        <v>72.00833900000001</v>
+        <v>2.883357</v>
       </c>
       <c r="I20">
-        <v>0.5436805243541726</v>
+        <v>0.01517338489870265</v>
       </c>
       <c r="J20">
-        <v>0.5436805243541726</v>
+        <v>0.01517338489870265</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.240756</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N20">
-        <v>0.722268</v>
+        <v>1.453856</v>
       </c>
       <c r="O20">
-        <v>0.001329597137910116</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P20">
-        <v>0.001329597137910116</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q20">
-        <v>5.778813221428001</v>
+        <v>0.465776208288</v>
       </c>
       <c r="R20">
-        <v>52.00931899285201</v>
+        <v>4.191985874592</v>
       </c>
       <c r="S20">
-        <v>0.0007228760691187789</v>
+        <v>4.001908513984626E-05</v>
       </c>
       <c r="T20">
-        <v>0.000722876069118779</v>
+        <v>4.001908513984627E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>24.00277966666667</v>
+        <v>0.9611190000000001</v>
       </c>
       <c r="H21">
-        <v>72.00833900000001</v>
+        <v>2.883357</v>
       </c>
       <c r="I21">
-        <v>0.5436805243541726</v>
+        <v>0.01517338489870265</v>
       </c>
       <c r="J21">
-        <v>0.5436805243541726</v>
+        <v>0.01517338489870265</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.06577766666666666</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N21">
-        <v>0.197333</v>
+        <v>0.235879</v>
       </c>
       <c r="O21">
-        <v>0.000363263209799156</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P21">
-        <v>0.0003632632097991561</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q21">
-        <v>1.578846839987444</v>
+        <v>0.07556926286700001</v>
       </c>
       <c r="R21">
-        <v>14.209621559887</v>
+        <v>0.680123365803</v>
       </c>
       <c r="S21">
-        <v>0.000197499132382185</v>
+        <v>6.492845084865212E-06</v>
       </c>
       <c r="T21">
-        <v>0.000197499132382185</v>
+        <v>6.492845084865213E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5576573333333333</v>
+        <v>5.801362333333334</v>
       </c>
       <c r="H22">
-        <v>1.672972</v>
+        <v>17.404087</v>
       </c>
       <c r="I22">
-        <v>0.01263134668596992</v>
+        <v>0.09158730981335542</v>
       </c>
       <c r="J22">
-        <v>0.01263134668596992</v>
+        <v>0.09158730981335543</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3397146666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N22">
-        <v>1.019144</v>
+        <v>8.472693</v>
       </c>
       <c r="O22">
-        <v>0.001876105469878586</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P22">
-        <v>0.001876105469878587</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q22">
-        <v>0.1894443751075555</v>
+        <v>16.38438734403233</v>
       </c>
       <c r="R22">
-        <v>1.704999375968</v>
+        <v>147.459486096291</v>
       </c>
       <c r="S22">
-        <v>2.369773860948093E-05</v>
+        <v>0.00140773225514263</v>
       </c>
       <c r="T22">
-        <v>2.369773860948093E-05</v>
+        <v>0.00140773225514263</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5576573333333333</v>
+        <v>5.801362333333334</v>
       </c>
       <c r="H23">
-        <v>1.672972</v>
+        <v>17.404087</v>
       </c>
       <c r="I23">
-        <v>0.01263134668596992</v>
+        <v>0.09158730981335542</v>
       </c>
       <c r="J23">
-        <v>0.01263134668596992</v>
+        <v>0.09158730981335543</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>541.0724789999999</v>
       </c>
       <c r="O23">
-        <v>0.9960408317692755</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P23">
-        <v>0.9960408317692757</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q23">
-        <v>100.5776785930653</v>
+        <v>1046.31916642463</v>
       </c>
       <c r="R23">
-        <v>905.199107337588</v>
+        <v>9416.872497821672</v>
       </c>
       <c r="S23">
-        <v>0.01258133705945956</v>
+        <v>0.08989882922210012</v>
       </c>
       <c r="T23">
-        <v>0.01258133705945957</v>
+        <v>0.08989882922210013</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,87 +1898,87 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5576573333333333</v>
+        <v>5.801362333333334</v>
       </c>
       <c r="H24">
-        <v>1.672972</v>
+        <v>17.404087</v>
       </c>
       <c r="I24">
-        <v>0.01263134668596992</v>
+        <v>0.09158730981335542</v>
       </c>
       <c r="J24">
-        <v>0.01263134668596992</v>
+        <v>0.09158730981335543</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.07065566666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N24">
-        <v>0.211967</v>
+        <v>1.453856</v>
       </c>
       <c r="O24">
-        <v>0.000390202413136666</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P24">
-        <v>0.0003902024131366661</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q24">
-        <v>0.03940165065822222</v>
+        <v>2.811448478830223</v>
       </c>
       <c r="R24">
-        <v>0.354614855924</v>
+        <v>25.303036309472</v>
       </c>
       <c r="S24">
-        <v>4.928781958031292E-06</v>
+        <v>0.0002415571985828642</v>
       </c>
       <c r="T24">
-        <v>4.928781958031295E-06</v>
+        <v>0.0002415571985828643</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5576573333333333</v>
+        <v>5.801362333333334</v>
       </c>
       <c r="H25">
-        <v>1.672972</v>
+        <v>17.404087</v>
       </c>
       <c r="I25">
-        <v>0.01263134668596992</v>
+        <v>0.09158730981335542</v>
       </c>
       <c r="J25">
-        <v>0.01263134668596992</v>
+        <v>0.09158730981335543</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,400 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.240756</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N25">
-        <v>0.722268</v>
+        <v>0.235879</v>
       </c>
       <c r="O25">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P25">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q25">
-        <v>0.134259348944</v>
+        <v>0.4561398486081112</v>
       </c>
       <c r="R25">
-        <v>1.208334140496</v>
+        <v>4.105258637473</v>
       </c>
       <c r="S25">
-        <v>1.679460240161603E-05</v>
+        <v>3.919113752980173E-05</v>
       </c>
       <c r="T25">
-        <v>1.679460240161604E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.5576573333333333</v>
-      </c>
-      <c r="H26">
-        <v>1.672972</v>
-      </c>
-      <c r="I26">
-        <v>0.01263134668596992</v>
-      </c>
-      <c r="J26">
-        <v>0.01263134668596992</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.06577766666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.197333</v>
-      </c>
-      <c r="O26">
-        <v>0.000363263209799156</v>
-      </c>
-      <c r="P26">
-        <v>0.0003632632097991561</v>
-      </c>
-      <c r="Q26">
-        <v>0.03668139818622222</v>
-      </c>
-      <c r="R26">
-        <v>0.330132583676</v>
-      </c>
-      <c r="S26">
-        <v>4.588503541231366E-06</v>
-      </c>
-      <c r="T26">
-        <v>4.588503541231368E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>6.243621333333333</v>
-      </c>
-      <c r="H27">
-        <v>18.730864</v>
-      </c>
-      <c r="I27">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="J27">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.3397146666666667</v>
-      </c>
-      <c r="N27">
-        <v>1.019144</v>
-      </c>
-      <c r="O27">
-        <v>0.001876105469878586</v>
-      </c>
-      <c r="P27">
-        <v>0.001876105469878587</v>
-      </c>
-      <c r="Q27">
-        <v>2.121049740046222</v>
-      </c>
-      <c r="R27">
-        <v>19.089447660416</v>
-      </c>
-      <c r="S27">
-        <v>0.0002653236987838029</v>
-      </c>
-      <c r="T27">
-        <v>0.0002653236987838029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6.243621333333333</v>
-      </c>
-      <c r="H28">
-        <v>18.730864</v>
-      </c>
-      <c r="I28">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="J28">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>180.357493</v>
-      </c>
-      <c r="N28">
-        <v>541.0724789999999</v>
-      </c>
-      <c r="O28">
-        <v>0.9960408317692755</v>
-      </c>
-      <c r="P28">
-        <v>0.9960408317692757</v>
-      </c>
-      <c r="Q28">
-        <v>1126.083890921317</v>
-      </c>
-      <c r="R28">
-        <v>10134.75501829185</v>
-      </c>
-      <c r="S28">
-        <v>0.140862676362125</v>
-      </c>
-      <c r="T28">
-        <v>0.140862676362125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>6.243621333333333</v>
-      </c>
-      <c r="H29">
-        <v>18.730864</v>
-      </c>
-      <c r="I29">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="J29">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M29">
-        <v>0.07065566666666667</v>
-      </c>
-      <c r="N29">
-        <v>0.211967</v>
-      </c>
-      <c r="O29">
-        <v>0.000390202413136666</v>
-      </c>
-      <c r="P29">
-        <v>0.0003902024131366661</v>
-      </c>
-      <c r="Q29">
-        <v>0.4411472277208889</v>
-      </c>
-      <c r="R29">
-        <v>3.970325049488</v>
-      </c>
-      <c r="S29">
-        <v>5.518343674702138E-05</v>
-      </c>
-      <c r="T29">
-        <v>5.518343674702139E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>6.243621333333333</v>
-      </c>
-      <c r="H30">
-        <v>18.730864</v>
-      </c>
-      <c r="I30">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="J30">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.240756</v>
-      </c>
-      <c r="N30">
-        <v>0.722268</v>
-      </c>
-      <c r="O30">
-        <v>0.001329597137910116</v>
-      </c>
-      <c r="P30">
-        <v>0.001329597137910116</v>
-      </c>
-      <c r="Q30">
-        <v>1.503189297728</v>
-      </c>
-      <c r="R30">
-        <v>13.528703679552</v>
-      </c>
-      <c r="S30">
-        <v>0.0001880350738199703</v>
-      </c>
-      <c r="T30">
-        <v>0.0001880350738199703</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>6.243621333333333</v>
-      </c>
-      <c r="H31">
-        <v>18.730864</v>
-      </c>
-      <c r="I31">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="J31">
-        <v>0.1414225921962551</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.06577766666666666</v>
-      </c>
-      <c r="N31">
-        <v>0.197333</v>
-      </c>
-      <c r="O31">
-        <v>0.000363263209799156</v>
-      </c>
-      <c r="P31">
-        <v>0.0003632632097991561</v>
-      </c>
-      <c r="Q31">
-        <v>0.4106908428568889</v>
-      </c>
-      <c r="R31">
-        <v>3.696217585712</v>
-      </c>
-      <c r="S31">
-        <v>5.137362477932871E-05</v>
-      </c>
-      <c r="T31">
-        <v>5.137362477932872E-05</v>
+        <v>3.919113752980173E-05</v>
       </c>
     </row>
   </sheetData>
